--- a/tp orga datos.xlsx
+++ b/tp orga datos.xlsx
@@ -145,7 +145,7 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -161,6 +161,32 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.8572793142991413E-2"/>
+                  <c:y val="-2.8299463115656915E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLblPos val="b"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>Hoja1!$A$12:$A$22</c:f>
@@ -233,7 +259,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -315,7 +341,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -385,7 +411,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -496,7 +522,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -566,7 +592,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -636,7 +662,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -652,6 +678,32 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.3522287576524561E-3"/>
+                  <c:y val="2.8749357509685946E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLblPos val="b"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>Hoja1!$A$12:$A$22</c:f>
@@ -706,7 +758,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:dLblPos val="b"/>
@@ -717,11 +769,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="145839744"/>
-        <c:axId val="145839168"/>
+        <c:axId val="214090880"/>
+        <c:axId val="214091456"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="145839744"/>
+        <c:axId val="214090880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -752,12 +804,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145839168"/>
+        <c:crossAx val="214091456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="145839168"/>
+        <c:axId val="214091456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.8"/>
@@ -789,7 +841,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145839744"/>
+        <c:crossAx val="214090880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1101,7 +1153,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
